--- a/MainTop/20.05.25 имена/поставка.xlsx
+++ b/MainTop/20.05.25 имена/поставка.xlsx
@@ -5,17 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\20.05.25 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\20.05.25 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB1F501-1360-4150-9E53-8C71C0188637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51AC253-6563-4E04-8E7F-8EF648F4F168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -648,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
